--- a/oster_data_2022/PAR_and_height6.xlsx
+++ b/oster_data_2022/PAR_and_height6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Fac\Cesure2\Plant species coexistence\annalisys\oster_data_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Fac\Cesure2\Plant_species_coexistence\functions_and_coex\oster_data_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E5F8F-C6CF-4C14-BA11-26B9A37175AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC97E34-76C1-4D67-8FC6-FC11F1E0D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,10 +685,10 @@
   <dimension ref="A1:P721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B292" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H304" sqref="H304"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="5">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="I7" s="14">
         <v>186</v>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>18</v>
